--- a/DateBase/orders/Dang Nguyen_2025-3-16.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-3-16.xlsx
@@ -608,6 +608,9 @@
       <c r="C21" t="str">
         <v>646_芍药莎拉_Sarah_undefined_5stems</v>
       </c>
+      <c r="F21" t="str">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -669,7 +672,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>02015302051016201051020108871060400</v>
+        <v>020153020510162010510201088710604030</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-3-16.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-3-16.xlsx
@@ -674,6 +674,9 @@
       <c r="G2" t="str">
         <v>020153020510162010510201088710604030</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
